--- a/veriSeti.xlsx
+++ b/veriSeti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BATUHAN\Desktop\Korelasyon-Regresyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898BA69A-E081-4D83-B081-2455D2CEEE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F70CE-616A-46A0-AFE4-FBBF3CA20F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Russian Rouble</t>
   </si>
@@ -140,16 +140,21 @@
   </si>
   <si>
     <t>sumx1</t>
+  </si>
+  <si>
+    <t>y sapka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -186,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,9 +202,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,13 +502,15 @@
     <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,7 +533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>89.805499999999995</v>
       </c>
@@ -545,7 +558,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>89.379199999999997</v>
       </c>
@@ -570,7 +583,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>89.511600000000001</v>
       </c>
@@ -594,8 +607,47 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>5.32</v>
+      </c>
+      <c r="O4">
+        <v>5.92</v>
+      </c>
+      <c r="P4">
+        <v>6.04</v>
+      </c>
+      <c r="Q4">
+        <v>6.22</v>
+      </c>
+      <c r="R4">
+        <v>6.34</v>
+      </c>
+      <c r="S4">
+        <v>6.28</v>
+      </c>
+      <c r="T4">
+        <v>6.4</v>
+      </c>
+      <c r="U4">
+        <v>6.52</v>
+      </c>
+      <c r="V4">
+        <v>6.58</v>
+      </c>
+      <c r="W4">
+        <v>6.52</v>
+      </c>
+      <c r="X4">
+        <v>6.34</v>
+      </c>
+      <c r="Y4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>89.616399999999999</v>
       </c>
@@ -620,8 +672,9 @@
         <f t="shared" si="1"/>
         <v>171.10000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>89.404899999999998</v>
       </c>
@@ -646,7 +699,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>89.632499999999993</v>
       </c>
@@ -674,7 +727,7 @@
         <v>239.4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>90.619200000000006</v>
       </c>
@@ -702,7 +755,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>91.221699999999998</v>
       </c>
@@ -733,8 +786,12 @@
         <f t="shared" si="1"/>
         <v>283.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <f>(N4-F2)^2</f>
+        <v>3.2399999999999901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>90.930700000000002</v>
       </c>
@@ -765,8 +822,9 @@
         <f t="shared" si="1"/>
         <v>204.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>91.624799999999993</v>
       </c>
@@ -791,7 +849,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>91.897900000000007</v>
       </c>
@@ -816,7 +874,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>92.384200000000007</v>
       </c>
@@ -841,7 +899,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>91.725800000000007</v>
       </c>
@@ -854,12 +912,12 @@
         <v>2459.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>91.253799999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>91.673199999999994</v>
       </c>
@@ -871,12 +929,15 @@
         <v>6.2666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>91.100899999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E17" s="10">
+        <v>-0.34368431489159501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>89.636899999999997</v>
       </c>
@@ -887,8 +948,9 @@
         <f>12*115.75*J16</f>
         <v>8704.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>89.084999999999994</v>
       </c>
@@ -898,8 +960,11 @@
       <c r="J19">
         <v>115.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N19" s="7">
+        <v>0.35959999999999898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>89.44</v>
       </c>
@@ -911,68 +976,75 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>89.591300000000004</v>
       </c>
+      <c r="E21" s="8">
+        <v>5.7108863771561602E-2</v>
+      </c>
       <c r="I21" t="s">
         <v>21</v>
       </c>
       <c r="J21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>89.0364</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E22" s="8">
+        <v>-0.34368431489159501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>89.09</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>89.785899999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>90.053700000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>90.807500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>90.8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>91.2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>90.817499999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>91.671499999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>90.341999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>91.467100000000002</v>
       </c>
